--- a/Desain Database GMU_v2.xlsx
+++ b/Desain Database GMU_v2.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\my data\My Pj\AL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\my data\My Pj\AL\GMU\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8565"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="desain db cabang" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
